--- a/Data/Metadata/Angiosperms/powo/Dioscoreaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Dioscoreaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,17 +812,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tacca</t>
+          <t>Dioscorea</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>parkeri</t>
+          <t>cayenensis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Seem.</t>
+          <t>Lam.</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -835,7 +835,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tacca_parkeri</t>
+          <t>Dioscorea_cayenensis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -850,65 +850,10 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:30093347-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:317788-1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:30093347-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dioscoreaceae</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Dioscorea</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>cayenensis</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Lam.</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Dioscorea_cayenensis</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:317788-1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>urn:lsid:ipni.org:names:317788-1</t>
         </is>
